--- a/rawdata/excel/100 50x50_dik^dikpq^dikbq^aspq^asbq_sd0.xlsx
+++ b/rawdata/excel/100 50x50_dik^dikpq^dikbq^aspq^asbq_sd0.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\RASPBERRYPI\altairBackup\rawdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altair823/Desktop/SPA_compare/rawdata/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3439DC-A10B-4E34-AAEE-63CBFFAA68F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C715E5-C0DF-0E48-A4F6-D25533AF1604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>DIK</t>
   </si>
@@ -36,25 +47,21 @@
   <si>
     <t>ASBQ</t>
   </si>
+  <si>
+    <t>is SPD same?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,8 +94,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5570,13 +5577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5607,9 +5617,11 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1060</v>
       </c>
@@ -5640,8 +5652,12 @@
       <c r="J2">
         <v>1.16E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="str">
+        <f>IF(AND(A2=B2, B2=C2, C2=D2, D2=E2), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1060</v>
       </c>
@@ -5672,8 +5688,12 @@
       <c r="J3">
         <v>1.232E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K66" si="0">IF(AND(A3=B3, B3=C3, C3=D3, D3=E3), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1120</v>
       </c>
@@ -5704,8 +5724,12 @@
       <c r="J4">
         <v>1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1040</v>
       </c>
@@ -5736,8 +5760,12 @@
       <c r="J5">
         <v>5.6300000000000002E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1160</v>
       </c>
@@ -5768,8 +5796,12 @@
       <c r="J6">
         <v>1.418E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1100</v>
       </c>
@@ -5800,8 +5832,12 @@
       <c r="J7">
         <v>9.8700000000000003E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1060</v>
       </c>
@@ -5832,8 +5868,12 @@
       <c r="J8">
         <v>7.7800000000000005E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1040</v>
       </c>
@@ -5864,8 +5904,12 @@
       <c r="J9">
         <v>5.5000000000000003E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1080</v>
       </c>
@@ -5896,8 +5940,12 @@
       <c r="J10">
         <v>8.4999999999999995E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>1080</v>
       </c>
@@ -5928,8 +5976,12 @@
       <c r="J11">
         <v>1.4530000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>1060</v>
       </c>
@@ -5960,8 +6012,12 @@
       <c r="J12">
         <v>9.7499999999999996E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1140</v>
       </c>
@@ -5992,8 +6048,12 @@
       <c r="J13">
         <v>1.3389999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>1060</v>
       </c>
@@ -6024,8 +6084,12 @@
       <c r="J14">
         <v>7.7300000000000003E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1040</v>
       </c>
@@ -6056,8 +6120,12 @@
       <c r="J15">
         <v>9.2400000000000002E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>1200</v>
       </c>
@@ -6088,8 +6156,12 @@
       <c r="J16">
         <v>1.132E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>1020</v>
       </c>
@@ -6120,8 +6192,12 @@
       <c r="J17">
         <v>7.7700000000000002E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>1060</v>
       </c>
@@ -6152,8 +6228,12 @@
       <c r="J18">
         <v>1.0280000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>1100</v>
       </c>
@@ -6184,8 +6264,12 @@
       <c r="J19">
         <v>9.3800000000000003E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>1040</v>
       </c>
@@ -6216,8 +6300,12 @@
       <c r="J20">
         <v>9.9500000000000001E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>1180</v>
       </c>
@@ -6248,8 +6336,12 @@
       <c r="J21">
         <v>1.604E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>1040</v>
       </c>
@@ -6280,8 +6372,12 @@
       <c r="J22">
         <v>5.0600000000000005E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>1120</v>
       </c>
@@ -6312,8 +6408,12 @@
       <c r="J23">
         <v>1.526E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>1260</v>
       </c>
@@ -6344,8 +6444,12 @@
       <c r="J24">
         <v>1.7340000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>1060</v>
       </c>
@@ -6376,8 +6480,12 @@
       <c r="J25">
         <v>9.8900000000000008E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>1120</v>
       </c>
@@ -6408,8 +6516,12 @@
       <c r="J26">
         <v>1.634E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>1060</v>
       </c>
@@ -6440,8 +6552,12 @@
       <c r="J27">
         <v>8.5099999999999998E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>980</v>
       </c>
@@ -6472,8 +6588,12 @@
       <c r="J28">
         <v>3.79E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>1120</v>
       </c>
@@ -6504,8 +6624,12 @@
       <c r="J29">
         <v>1.3290000000000001E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>1040</v>
       </c>
@@ -6536,8 +6660,12 @@
       <c r="J30">
         <v>6.4599999999999998E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>1120</v>
       </c>
@@ -6568,8 +6696,12 @@
       <c r="J31">
         <v>1.5410000000000001E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>1060</v>
       </c>
@@ -6600,8 +6732,12 @@
       <c r="J32">
         <v>9.3300000000000002E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>1100</v>
       </c>
@@ -6632,8 +6768,12 @@
       <c r="J33">
         <v>1.292E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>1160</v>
       </c>
@@ -6664,8 +6804,12 @@
       <c r="J34">
         <v>1.266E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>1240</v>
       </c>
@@ -6696,8 +6840,12 @@
       <c r="J35">
         <v>1.7279999999999999E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>1120</v>
       </c>
@@ -6728,8 +6876,12 @@
       <c r="J36">
         <v>1.6850000000000001E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>1100</v>
       </c>
@@ -6760,8 +6912,12 @@
       <c r="J37">
         <v>1.0809999999999999E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>1020</v>
       </c>
@@ -6792,8 +6948,12 @@
       <c r="J38">
         <v>8.8999999999999995E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>1060</v>
       </c>
@@ -6824,8 +6984,12 @@
       <c r="J39">
         <v>8.3600000000000005E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>1180</v>
       </c>
@@ -6856,8 +7020,12 @@
       <c r="J40">
         <v>1.3600000000000001E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>1100</v>
       </c>
@@ -6888,8 +7056,12 @@
       <c r="J41">
         <v>1.2210000000000001E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>1060</v>
       </c>
@@ -6920,8 +7092,12 @@
       <c r="J42">
         <v>1.4430000000000001E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>1120</v>
       </c>
@@ -6952,8 +7128,12 @@
       <c r="J43">
         <v>1.2999999999999999E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>1040</v>
       </c>
@@ -6984,8 +7164,12 @@
       <c r="J44">
         <v>7.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>1180</v>
       </c>
@@ -7016,8 +7200,12 @@
       <c r="J45">
         <v>1.467E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>1220</v>
       </c>
@@ -7048,8 +7236,12 @@
       <c r="J46">
         <v>1.774E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>1040</v>
       </c>
@@ -7080,8 +7272,12 @@
       <c r="J47">
         <v>6.1399999999999996E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>1040</v>
       </c>
@@ -7112,8 +7308,12 @@
       <c r="J48">
         <v>8.0900000000000004E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>1060</v>
       </c>
@@ -7144,8 +7344,12 @@
       <c r="J49">
         <v>7.0200000000000004E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>1080</v>
       </c>
@@ -7176,8 +7380,12 @@
       <c r="J50">
         <v>1.059E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>1120</v>
       </c>
@@ -7208,8 +7416,12 @@
       <c r="J51">
         <v>1.0610000000000001E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>1100</v>
       </c>
@@ -7240,8 +7452,12 @@
       <c r="J52">
         <v>1.0859999999999999E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>1060</v>
       </c>
@@ -7272,8 +7488,12 @@
       <c r="J53">
         <v>1.0510000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>1040</v>
       </c>
@@ -7304,8 +7524,12 @@
       <c r="J54">
         <v>7.5900000000000002E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>1160</v>
       </c>
@@ -7336,8 +7560,12 @@
       <c r="J55">
         <v>1.725E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>1180</v>
       </c>
@@ -7368,8 +7596,12 @@
       <c r="J56">
         <v>1.6119999999999999E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>1200</v>
       </c>
@@ -7400,8 +7632,12 @@
       <c r="J57">
         <v>1.7409999999999999E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>1080</v>
       </c>
@@ -7432,8 +7668,12 @@
       <c r="J58">
         <v>8.3199999999999995E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>1060</v>
       </c>
@@ -7464,8 +7704,12 @@
       <c r="J59">
         <v>5.3600000000000002E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>1000</v>
       </c>
@@ -7496,8 +7740,12 @@
       <c r="J60">
         <v>6.1700000000000004E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>1140</v>
       </c>
@@ -7528,8 +7776,12 @@
       <c r="J61">
         <v>1.4450000000000001E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>1120</v>
       </c>
@@ -7560,8 +7812,12 @@
       <c r="J62">
         <v>1.1310000000000001E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>1140</v>
       </c>
@@ -7592,8 +7848,12 @@
       <c r="J63">
         <v>1.5269999999999999E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>1060</v>
       </c>
@@ -7624,8 +7884,12 @@
       <c r="J64">
         <v>7.7700000000000002E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>1000</v>
       </c>
@@ -7656,8 +7920,12 @@
       <c r="J65">
         <v>3.2600000000000001E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>1140</v>
       </c>
@@ -7688,8 +7956,12 @@
       <c r="J66">
         <v>1.632E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>1040</v>
       </c>
@@ -7720,8 +7992,12 @@
       <c r="J67">
         <v>1.065E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="1" t="str">
+        <f t="shared" ref="K67:K101" si="1">IF(AND(A67=B67, B67=C67, C67=D67, D67=E67), "O","X")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>1080</v>
       </c>
@@ -7752,8 +8028,12 @@
       <c r="J68">
         <v>7.3800000000000005E-4</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>1100</v>
       </c>
@@ -7784,8 +8064,12 @@
       <c r="J69">
         <v>1.1789999999999999E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>1120</v>
       </c>
@@ -7816,8 +8100,12 @@
       <c r="J70">
         <v>1.395E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>1180</v>
       </c>
@@ -7848,8 +8136,12 @@
       <c r="J71">
         <v>1.562E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>1080</v>
       </c>
@@ -7880,8 +8172,12 @@
       <c r="J72">
         <v>9.1799999999999998E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>1060</v>
       </c>
@@ -7912,8 +8208,12 @@
       <c r="J73">
         <v>5.1400000000000003E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>1100</v>
       </c>
@@ -7944,8 +8244,12 @@
       <c r="J74">
         <v>1.369E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>1040</v>
       </c>
@@ -7976,8 +8280,12 @@
       <c r="J75">
         <v>6.2399999999999999E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>1140</v>
       </c>
@@ -8008,8 +8316,12 @@
       <c r="J76">
         <v>1.5430000000000001E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>1160</v>
       </c>
@@ -8040,8 +8352,12 @@
       <c r="J77">
         <v>1.753E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>1120</v>
       </c>
@@ -8072,8 +8388,12 @@
       <c r="J78">
         <v>1.48E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>1020</v>
       </c>
@@ -8104,8 +8424,12 @@
       <c r="J79">
         <v>9.990000000000001E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>1080</v>
       </c>
@@ -8136,8 +8460,12 @@
       <c r="J80">
         <v>1.1280000000000001E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>1120</v>
       </c>
@@ -8168,8 +8496,12 @@
       <c r="J81">
         <v>1.0820000000000001E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>1040</v>
       </c>
@@ -8200,8 +8532,12 @@
       <c r="J82">
         <v>1.072E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>1060</v>
       </c>
@@ -8232,8 +8568,12 @@
       <c r="J83">
         <v>8.4500000000000005E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>1020</v>
       </c>
@@ -8264,8 +8604,12 @@
       <c r="J84">
         <v>5.9400000000000002E-4</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>1080</v>
       </c>
@@ -8296,8 +8640,12 @@
       <c r="J85">
         <v>6.4999999999999997E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>1140</v>
       </c>
@@ -8328,8 +8676,12 @@
       <c r="J86">
         <v>1.098E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>1020</v>
       </c>
@@ -8360,8 +8712,12 @@
       <c r="J87">
         <v>6.69E-4</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>980</v>
       </c>
@@ -8392,8 +8748,12 @@
       <c r="J88">
         <v>2.5099999999999998E-4</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>1200</v>
       </c>
@@ -8424,8 +8784,12 @@
       <c r="J89">
         <v>1.6299999999999999E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>1040</v>
       </c>
@@ -8456,8 +8820,12 @@
       <c r="J90">
         <v>7.6400000000000003E-4</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>1040</v>
       </c>
@@ -8488,8 +8856,12 @@
       <c r="J91">
         <v>8.5499999999999997E-4</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>1000</v>
       </c>
@@ -8520,8 +8892,12 @@
       <c r="J92">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>1160</v>
       </c>
@@ -8552,8 +8928,12 @@
       <c r="J93">
         <v>1.256E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>1120</v>
       </c>
@@ -8584,8 +8964,12 @@
       <c r="J94">
         <v>8.9899999999999995E-4</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>1140</v>
       </c>
@@ -8616,8 +9000,12 @@
       <c r="J95">
         <v>1.446E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>1020</v>
       </c>
@@ -8648,8 +9036,12 @@
       <c r="J96">
         <v>5.5400000000000002E-4</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>1060</v>
       </c>
@@ -8680,8 +9072,12 @@
       <c r="J97">
         <v>8.0099999999999995E-4</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>1020</v>
       </c>
@@ -8712,8 +9108,12 @@
       <c r="J98">
         <v>7.0100000000000002E-4</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>1060</v>
       </c>
@@ -8744,8 +9144,12 @@
       <c r="J99">
         <v>1.1670000000000001E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>1160</v>
       </c>
@@ -8776,8 +9180,12 @@
       <c r="J100">
         <v>1.462E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>1060</v>
       </c>
@@ -8808,9 +9216,13 @@
       <c r="J101">
         <v>1.191E-3</v>
       </c>
+      <c r="K101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
